--- a/251129.xlsx
+++ b/251129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diak\Desktop\pal_orsolya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2326E487-AFDB-4820-B281-41F59EDC3E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D4831-A3BF-4B92-BD6C-80B1B14067F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{6DC83063-D923-40CB-8D58-4542F3937090}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>Tanuló</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>chiamag</t>
+  </si>
+  <si>
+    <t>KiMitSzeret</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900F099F-F80D-4DEE-B118-7B32C8B2D511}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,6 +1702,67 @@
         <v>78</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/251129.xlsx
+++ b/251129.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diak\Desktop\pal_orsolya\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D4831-A3BF-4B92-BD6C-80B1B14067F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CBC7DF-77E3-4089-A38F-E806EDCA67E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" activeTab="1" xr2:uid="{6DC83063-D923-40CB-8D58-4542F3937090}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Tanuló</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>KiMitSzeret</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>Sem bővítési, sem módosítási, sem törlési anomáliát nem tartalmaz.</t>
   </si>
 </sst>
 </file>
@@ -298,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +486,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -514,6 +526,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Jó" xfId="1" builtinId="26"/>
@@ -1448,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900F099F-F80D-4DEE-B118-7B32C8B2D511}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1692,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>9</v>
       </c>
@@ -1686,7 +1700,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -1702,66 +1716,80 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="26"/>
+      <c r="D37" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B38" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
         <v>1</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
         <v>1</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>1</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="26">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>2</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="26">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
         <v>8</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="26">
         <v>7</v>
       </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
